--- a/data/trans_orig/IP07C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D5BF95-5A9A-419F-929B-89FEB16601D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1DE568-C2EB-4935-ACCC-4D63ECF0025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7B49472-2C6F-48F8-8C62-2E9A47F3D386}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{200889D5-3D49-4B0A-B945-F79B984EC571}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="761">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -77,2251 +77,2248 @@
     <t>61,51%</t>
   </si>
   <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
     <t>38,57%</t>
   </si>
   <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -2736,7 +2733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0595D53C-F6F7-4A68-AF77-855E0187A4A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B24D54-9801-4384-AAA2-390CD25D6327}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3943,7 +3940,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3952,13 +3949,13 @@
         <v>1726</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3967,13 +3964,13 @@
         <v>2368</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,7 +3991,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4009,7 +4006,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4024,7 +4021,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,7 +4077,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4092,13 +4089,13 @@
         <v>40990</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -4107,13 +4104,13 @@
         <v>37911</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>108</v>
@@ -4122,13 +4119,13 @@
         <v>78901</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4140,13 @@
         <v>41865</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -4158,13 +4155,13 @@
         <v>33576</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -4173,13 +4170,13 @@
         <v>75441</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4191,13 @@
         <v>3305</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -4209,13 +4206,13 @@
         <v>6822</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -4224,13 +4221,13 @@
         <v>10127</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4242,13 @@
         <v>1969</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4266,7 +4263,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -4275,13 +4272,13 @@
         <v>1969</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,7 +4299,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4317,7 +4314,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4332,7 +4329,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4397,13 @@
         <v>164905</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>230</v>
@@ -4415,13 +4412,13 @@
         <v>154723</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M34" s="7">
         <v>480</v>
@@ -4430,13 +4427,13 @@
         <v>319628</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4448,13 @@
         <v>131035</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H35" s="7">
         <v>177</v>
@@ -4466,13 +4463,13 @@
         <v>119094</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M35" s="7">
         <v>372</v>
@@ -4481,13 +4478,13 @@
         <v>250129</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4499,13 @@
         <v>9802</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -4517,13 +4514,13 @@
         <v>14575</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -4532,13 +4529,13 @@
         <v>24377</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4550,13 @@
         <v>3988</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -4568,13 +4565,13 @@
         <v>2253</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -4717,7 +4714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487FAFFF-9639-43A3-AB5D-C984545D9264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80591B29-1947-4AD5-ADAE-91E5C7B7901A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5284,10 +5281,10 @@
         <v>268</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,7 +5305,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5317,13 +5314,13 @@
         <v>1397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5332,13 +5329,13 @@
         <v>1397</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5350,13 @@
         <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5374,7 +5371,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5383,13 +5380,13 @@
         <v>687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5454,13 @@
         <v>43591</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5472,13 +5469,13 @@
         <v>38101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -5487,13 +5484,13 @@
         <v>81692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5505,13 @@
         <v>46454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5523,13 +5520,13 @@
         <v>54611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -5538,13 +5535,13 @@
         <v>101065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5556,13 @@
         <v>3845</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -5574,13 +5571,13 @@
         <v>3770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5589,13 +5586,13 @@
         <v>7614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5607,13 @@
         <v>1277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5625,13 +5622,13 @@
         <v>1356</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5643,10 +5640,10 @@
         <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,7 +5664,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5682,7 +5679,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5697,7 +5694,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5762,13 @@
         <v>33878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5780,13 +5777,13 @@
         <v>26587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -5795,13 +5792,13 @@
         <v>60464</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5813,13 @@
         <v>30312</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -5831,13 +5828,13 @@
         <v>33537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>100</v>
@@ -5846,13 +5843,13 @@
         <v>63848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5864,13 @@
         <v>1630</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5882,13 +5879,13 @@
         <v>2603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5897,13 +5894,13 @@
         <v>4233</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5915,13 @@
         <v>2654</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5933,13 +5930,13 @@
         <v>1086</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5948,13 +5945,13 @@
         <v>3741</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5966,13 @@
         <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5990,7 +5987,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5999,13 +5996,13 @@
         <v>1285</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>343</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,7 +6058,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6073,13 +6070,13 @@
         <v>37182</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -6088,13 +6085,13 @@
         <v>28997</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -6103,13 +6100,13 @@
         <v>66178</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,28 +6121,28 @@
         <v>42305</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
       </c>
       <c r="I29" s="7">
-        <v>48304</v>
+        <v>48305</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M29" s="7">
         <v>121</v>
@@ -6154,13 +6151,13 @@
         <v>90609</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6172,13 @@
         <v>7254</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -6190,13 +6187,13 @@
         <v>6904</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -6205,13 +6202,13 @@
         <v>14158</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6223,13 @@
         <v>3113</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6241,13 +6238,13 @@
         <v>818</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -6256,13 +6253,13 @@
         <v>3931</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,7 +6280,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6298,7 +6295,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6313,7 +6310,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,7 +6337,7 @@
         <v>109</v>
       </c>
       <c r="I33" s="7">
-        <v>85023</v>
+        <v>85024</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>38</v>
@@ -6381,13 +6378,13 @@
         <v>146112</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H34" s="7">
         <v>162</v>
@@ -6396,13 +6393,13 @@
         <v>113298</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M34" s="7">
         <v>375</v>
@@ -6411,13 +6408,13 @@
         <v>259410</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,10 +6432,10 @@
         <v>387</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>389</v>
+        <v>52</v>
       </c>
       <c r="H35" s="7">
         <v>247</v>
@@ -6447,13 +6444,13 @@
         <v>173535</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M35" s="7">
         <v>476</v>
@@ -6462,13 +6459,13 @@
         <v>331123</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6480,13 @@
         <v>14726</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>397</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -6498,13 +6495,13 @@
         <v>17869</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -6513,13 +6510,13 @@
         <v>32596</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,10 +6534,10 @@
         <v>131</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>405</v>
+        <v>160</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -6549,13 +6546,13 @@
         <v>5417</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -6564,13 +6561,13 @@
         <v>12461</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6582,13 @@
         <v>1294</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6600,13 +6597,13 @@
         <v>678</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -6615,13 +6612,13 @@
         <v>1973</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,7 +6695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E8AD36-6CEE-4354-B2DE-D2949C50C7B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599EE787-A701-4F90-AAAA-70FB462C9F11}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6715,7 +6712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6822,13 +6819,13 @@
         <v>5706</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6837,13 +6834,13 @@
         <v>5948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -6852,13 +6849,13 @@
         <v>11654</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>423</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,13 +6870,13 @@
         <v>5347</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6888,13 +6885,13 @@
         <v>5642</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6903,13 +6900,13 @@
         <v>10989</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6921,13 @@
         <v>2154</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6939,13 +6936,13 @@
         <v>1133</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>429</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6954,13 +6951,13 @@
         <v>3287</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>437</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,7 +6993,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7011,7 +7008,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,7 +7044,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7062,7 +7059,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7127,13 @@
         <v>33683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -7145,13 +7142,13 @@
         <v>26976</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>444</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -7160,13 +7157,13 @@
         <v>60660</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7178,13 @@
         <v>21613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>452</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -7196,13 +7193,13 @@
         <v>26542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -7211,13 +7208,13 @@
         <v>48155</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,7 +7235,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7247,13 +7244,13 @@
         <v>2088</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>460</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -7262,13 +7259,13 @@
         <v>2813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7280,13 @@
         <v>1815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7298,13 +7295,13 @@
         <v>675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7313,13 +7310,13 @@
         <v>2490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,7 +7337,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7355,7 +7352,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7370,7 +7367,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,13 +7435,13 @@
         <v>52747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -7453,13 +7450,13 @@
         <v>57758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>479</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -7468,13 +7465,13 @@
         <v>110505</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7486,13 @@
         <v>41470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -7504,13 +7501,13 @@
         <v>39625</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -7519,13 +7516,13 @@
         <v>81095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>491</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7537,13 @@
         <v>7734</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -7555,13 +7552,13 @@
         <v>3644</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -7570,13 +7567,13 @@
         <v>11378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7588,13 @@
         <v>2059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>277</v>
+        <v>454</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7606,13 +7603,13 @@
         <v>626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>63</v>
+        <v>491</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7621,13 +7618,13 @@
         <v>2686</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,7 +7645,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7657,13 +7654,13 @@
         <v>1244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7672,13 +7669,13 @@
         <v>1244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,13 +7743,13 @@
         <v>47496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -7761,13 +7758,13 @@
         <v>44777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -7776,13 +7773,13 @@
         <v>92273</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,13 +7794,13 @@
         <v>21355</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>515</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>222</v>
+        <v>506</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -7812,13 +7809,13 @@
         <v>21956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -7827,13 +7824,13 @@
         <v>43311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7845,13 @@
         <v>3420</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7863,13 +7860,13 @@
         <v>3176</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -7878,13 +7875,13 @@
         <v>6596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>519</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,7 +7902,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7920,7 +7917,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7929,13 +7926,13 @@
         <v>1650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>362</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7947,13 @@
         <v>700</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7971,7 +7968,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7980,13 +7977,13 @@
         <v>700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8042,7 +8039,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8054,13 +8051,13 @@
         <v>49991</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H28" s="7">
         <v>64</v>
@@ -8069,13 +8066,13 @@
         <v>49756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -8084,13 +8081,13 @@
         <v>99746</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8102,13 @@
         <v>44854</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>543</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="H29" s="7">
         <v>60</v>
@@ -8120,13 +8117,13 @@
         <v>45388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>77</v>
       </c>
       <c r="M29" s="7">
         <v>121</v>
@@ -8135,13 +8132,13 @@
         <v>90242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>348</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8153,13 @@
         <v>4682</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -8171,13 +8168,13 @@
         <v>8157</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -8186,13 +8183,13 @@
         <v>12840</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>130</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,7 +8210,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -8222,13 +8219,13 @@
         <v>583</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -8237,13 +8234,13 @@
         <v>583</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>377</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,7 +8261,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8279,7 +8276,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8294,7 +8291,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8362,13 +8359,13 @@
         <v>189624</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H34" s="7">
         <v>265</v>
@@ -8377,13 +8374,13 @@
         <v>185215</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="M34" s="7">
         <v>524</v>
@@ -8392,13 +8389,13 @@
         <v>374839</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,13 +8410,13 @@
         <v>134640</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H35" s="7">
         <v>198</v>
@@ -8428,13 +8425,13 @@
         <v>139153</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>569</v>
       </c>
       <c r="M35" s="7">
         <v>385</v>
@@ -8443,13 +8440,13 @@
         <v>273792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,13 +8461,13 @@
         <v>18716</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -8479,13 +8476,13 @@
         <v>18198</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>58</v>
+        <v>576</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -8494,13 +8491,13 @@
         <v>36914</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>301</v>
+        <v>579</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,13 +8512,13 @@
         <v>5524</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>590</v>
+        <v>495</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -8533,10 +8530,10 @@
         <v>132</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>178</v>
+        <v>583</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -8545,13 +8542,13 @@
         <v>7409</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>140</v>
+        <v>585</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8566,13 +8563,13 @@
         <v>700</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>595</v>
+        <v>400</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8581,13 +8578,13 @@
         <v>1244</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>597</v>
+        <v>68</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -8596,13 +8593,13 @@
         <v>1943</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>599</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,7 +8676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44005667-8A51-431B-9E99-8BD780BBBEC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F51838-EDF1-4291-83CD-F8CB9C88C1A8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8696,7 +8693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8803,13 +8800,13 @@
         <v>1093</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -8818,13 +8815,13 @@
         <v>471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -8833,13 +8830,13 @@
         <v>1565</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>604</v>
+        <v>532</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8854,13 +8851,13 @@
         <v>1231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -8869,13 +8866,13 @@
         <v>1122</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -8884,13 +8881,13 @@
         <v>2353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,7 +8908,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8926,7 +8923,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8941,7 +8938,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,7 +8959,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8977,7 +8974,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8992,7 +8989,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,7 +9010,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9028,7 +9025,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9043,7 +9040,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9111,13 +9108,13 @@
         <v>23222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -9126,13 +9123,13 @@
         <v>17313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -9141,13 +9138,13 @@
         <v>40534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9162,13 +9159,13 @@
         <v>16332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -9177,13 +9174,13 @@
         <v>12977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -9192,13 +9189,13 @@
         <v>29309</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9210,13 @@
         <v>1050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>634</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -9228,13 +9225,13 @@
         <v>605</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -9243,13 +9240,13 @@
         <v>1655</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9264,13 +9261,13 @@
         <v>1361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -9285,7 +9282,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -9294,13 +9291,13 @@
         <v>2364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9321,7 +9318,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>633</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9336,7 +9333,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>634</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9351,7 +9348,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9419,13 +9416,13 @@
         <v>51134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -9434,13 +9431,13 @@
         <v>34993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -9449,13 +9446,13 @@
         <v>86128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9470,13 +9467,13 @@
         <v>37629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>646</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -9485,13 +9482,13 @@
         <v>18293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -9500,13 +9497,13 @@
         <v>55923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9521,13 +9518,13 @@
         <v>7063</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -9536,13 +9533,13 @@
         <v>3177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -9551,13 +9548,13 @@
         <v>10240</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>503</v>
+        <v>660</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9572,13 +9569,13 @@
         <v>6871</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>662</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9593,7 +9590,7 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -9602,13 +9599,13 @@
         <v>6871</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>666</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,7 +9626,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9644,7 +9641,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -9653,13 +9650,13 @@
         <v>597</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>676</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9727,13 +9724,13 @@
         <v>39712</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -9742,13 +9739,13 @@
         <v>37586</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -9757,13 +9754,13 @@
         <v>77297</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9778,13 +9775,13 @@
         <v>23323</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -9793,13 +9790,13 @@
         <v>15988</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -9808,13 +9805,13 @@
         <v>39311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>622</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9829,13 +9826,13 @@
         <v>816</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>597</v>
+        <v>690</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -9844,13 +9841,13 @@
         <v>1243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -9859,13 +9856,13 @@
         <v>2058</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>596</v>
+        <v>694</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>697</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9880,13 +9877,13 @@
         <v>858</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -9895,13 +9892,13 @@
         <v>819</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -9910,13 +9907,13 @@
         <v>1677</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9967,7 +9964,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10023,7 +10020,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10035,13 +10032,13 @@
         <v>28292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -10050,13 +10047,13 @@
         <v>24351</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>656</v>
+        <v>255</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -10065,13 +10062,13 @@
         <v>52643</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>710</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10086,13 +10083,13 @@
         <v>22701</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>714</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -10101,13 +10098,13 @@
         <v>25585</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -10116,13 +10113,13 @@
         <v>48286</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10137,13 +10134,13 @@
         <v>5349</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>396</v>
+        <v>717</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -10152,13 +10149,13 @@
         <v>5103</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>723</v>
+        <v>61</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -10167,13 +10164,13 @@
         <v>10452</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10194,7 +10191,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -10203,13 +10200,13 @@
         <v>1444</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>729</v>
+        <v>574</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -10218,13 +10215,13 @@
         <v>1444</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>731</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10245,7 +10242,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10260,7 +10257,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10275,7 +10272,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>732</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10343,13 +10340,13 @@
         <v>143453</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>160</v>
+        <v>726</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
+        <v>728</v>
       </c>
       <c r="H34" s="7">
         <v>140</v>
@@ -10358,13 +10355,13 @@
         <v>114715</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="M34" s="7">
         <v>299</v>
@@ -10373,13 +10370,13 @@
         <v>258168</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10394,13 +10391,13 @@
         <v>101217</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H35" s="7">
         <v>110</v>
@@ -10409,13 +10406,13 @@
         <v>73966</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>738</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M35" s="7">
         <v>230</v>
@@ -10424,13 +10421,13 @@
         <v>175183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10445,13 +10442,13 @@
         <v>14278</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -10460,13 +10457,13 @@
         <v>10128</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>368</v>
+        <v>747</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>337</v>
+        <v>748</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M36" s="7">
         <v>33</v>
@@ -10475,13 +10472,13 @@
         <v>24406</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>307</v>
+        <v>750</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>460</v>
+        <v>751</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>752</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10496,13 +10493,13 @@
         <v>9090</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>755</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -10511,13 +10508,13 @@
         <v>3267</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>757</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>758</v>
+        <v>298</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -10526,13 +10523,13 @@
         <v>12357</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>92</v>
+        <v>757</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>306</v>
+        <v>697</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10553,7 +10550,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -10562,13 +10559,13 @@
         <v>597</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -10577,13 +10574,13 @@
         <v>597</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>464</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
